--- a/2012-2013Teams.xlsx
+++ b/2012-2013Teams.xlsx
@@ -474,7 +474,7 @@
   <dimension ref="A1:Q13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R2" sqref="R2:R13"/>
+      <selection activeCell="P11" sqref="P11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -996,10 +996,10 @@
         <v>1</v>
       </c>
       <c r="N11" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O11" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P11" s="7">
         <v>1</v>
